--- a/Report/Refactoring_Functional2Iterative.xlsx
+++ b/Report/Refactoring_Functional2Iterative.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Filter</t>
   </si>
@@ -47,13 +47,62 @@
   </si>
   <si>
     <t>Functional Style Type</t>
+  </si>
+  <si>
+    <t>Detections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>False Positives(Detections-Total Instances)</t>
+  </si>
+  <si>
+    <t>(19-19)=0</t>
+  </si>
+  <si>
+    <t>SuccessRate(Successful/Total Instances)</t>
+  </si>
+  <si>
+    <t>14/19=0.73</t>
+  </si>
+  <si>
+    <t>(16-15)=1</t>
+  </si>
+  <si>
+    <t>9/15=0.60</t>
+  </si>
+  <si>
+    <t>(15-15)=0</t>
+  </si>
+  <si>
+    <t>13/15=0.86</t>
+  </si>
+  <si>
+    <t>(4-4)=0</t>
+  </si>
+  <si>
+    <t>3/4=0.75</t>
+  </si>
+  <si>
+    <t>(7-3)=4</t>
+  </si>
+  <si>
+    <t>3/3=1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +120,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +174,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,23 +193,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,39 +525,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,25 +568,101 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -489,61 +673,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -553,61 +816,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -617,61 +960,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -681,61 +1104,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
